--- a/vulnerable_database.xlsx
+++ b/vulnerable_database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Username_Enumeration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DF43FE-93A3-475A-A742-FC59BEB76573}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E06BBD-8D83-4D43-8407-D0153DF9CDC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{46C3A514-8520-41A9-B3A1-DD6BF4AE646F}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>Wondershare</t>
   </si>
   <si>
-    <t>error_msgs.txt / Username Present message</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>A Deezer account is already associated with this email</t>
   </si>
   <si>
-    <t>msg2.txt / Username NOT Present message</t>
-  </si>
-  <si>
     <t>https://github.com/join</t>
   </si>
   <si>
@@ -475,6 +469,12 @@
   </si>
   <si>
     <t>https://www.facebook.com/</t>
+  </si>
+  <si>
+    <t>error_msgs.txt / Username Present message [-P option]</t>
+  </si>
+  <si>
+    <t>msg2.txt / Username NOT Present message [-NP option]</t>
   </si>
 </sst>
 </file>
@@ -945,16 +945,16 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.20703125" customWidth="1"/>
-    <col min="2" max="2" width="75" customWidth="1"/>
-    <col min="3" max="3" width="36.5234375" customWidth="1"/>
+    <col min="2" max="2" width="58.578125" customWidth="1"/>
+    <col min="3" max="3" width="46.1015625" customWidth="1"/>
     <col min="4" max="4" width="15.3671875" customWidth="1"/>
-    <col min="5" max="5" width="28.3125" customWidth="1"/>
+    <col min="5" max="5" width="15.05078125" customWidth="1"/>
     <col min="6" max="6" width="193.1015625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -963,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -983,19 +983,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1003,19 +1003,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1023,13 +1023,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1037,19 +1037,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1057,19 +1057,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1077,19 +1077,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1097,19 +1097,19 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1117,19 +1117,19 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1137,19 +1137,19 @@
         <v>11</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1157,19 +1157,19 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1182,19 +1182,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1202,19 +1202,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1222,19 +1222,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1242,19 +1242,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1262,19 +1262,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1282,19 +1282,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1302,19 +1302,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1322,19 +1322,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1342,19 +1342,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
         <v>57</v>
       </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1387,19 +1387,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1407,19 +1407,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1427,19 +1427,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
         <v>57</v>
       </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1447,19 +1447,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1467,19 +1467,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1487,19 +1487,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1507,19 +1507,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1527,13 +1527,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1541,13 +1541,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1555,13 +1555,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1569,19 +1569,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
         <v>57</v>
       </c>
-      <c r="D37" t="s">
-        <v>58</v>
-      </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1589,19 +1589,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1609,19 +1609,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1629,19 +1629,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1649,19 +1649,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1669,19 +1669,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1689,19 +1689,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1709,19 +1709,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1729,19 +1729,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1749,19 +1749,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1769,39 +1769,39 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" s="9" t="s">
+      <c r="C48" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1809,19 +1809,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
         <v>57</v>
       </c>
-      <c r="D49" t="s">
-        <v>58</v>
-      </c>
       <c r="E49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1829,19 +1829,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1849,19 +1849,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1869,19 +1869,19 @@
         <v>52</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="18" customFormat="1" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
@@ -1889,19 +1889,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/vulnerable_database.xlsx
+++ b/vulnerable_database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Username_Enumeration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E06BBD-8D83-4D43-8407-D0153DF9CDC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E284C60C-EFE4-48E2-9815-6291C1AE56B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{46C3A514-8520-41A9-B3A1-DD6BF4AE646F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="142">
   <si>
     <t>Website</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Google</t>
   </si>
   <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
     <t>Microsoft</t>
   </si>
   <si>
@@ -460,15 +454,6 @@
   </si>
   <si>
     <t>https://signup.live.com/signup</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/ap/signin?openid.pape.max_auth_age=0&amp;openid.return_to=https%3A%2F%2Fwww.amazon.com%2F%3Fref_%3Dnav_custrec_signin&amp;prevRID=37E71K07MTANFV33RDSX&amp;openid.identity=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.assoc_handle=usflex&amp;openid.mode=checkid_setup&amp;failedSignInCount=0&amp;openid.claimed_id=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;pageId=usflex&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0</t>
-  </si>
-  <si>
-    <t>The password you’ve entered is incorrect.</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/</t>
   </si>
   <si>
     <t>error_msgs.txt / Username Present message [-P option]</t>
@@ -942,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CA08D5-CC23-4153-917E-99028B815B65}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -963,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -983,198 +968,204 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>143</v>
+      <c r="B3" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>142</v>
+        <v>61</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>140</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>141</v>
+        <v>61</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>138</v>
+      <c r="B6" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>136</v>
+      <c r="B7" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>137</v>
+        <v>60</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="B11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
+      <c r="B12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1182,180 +1173,150 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>74</v>
+      <c r="B14" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>76</v>
+      <c r="B15" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>56</v>
+      <c r="B16" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>80</v>
+      <c r="B17" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
@@ -1367,38 +1328,68 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
+      <c r="B25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>85</v>
+      <c r="B27" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1407,161 +1398,161 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>89</v>
+      <c r="B29" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>88</v>
+        <v>61</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>90</v>
+      <c r="B30" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>93</v>
+      <c r="B31" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
+      <c r="B35" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
+      <c r="B36" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1569,19 +1560,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1589,39 +1580,39 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>102</v>
+      <c r="B39" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1629,328 +1620,286 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>106</v>
+      <c r="B41" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>109</v>
+      <c r="B42" t="s">
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>108</v>
+        <v>61</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>110</v>
+      <c r="B43" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>112</v>
+      <c r="B44" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>113</v>
+        <v>61</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>115</v>
+      <c r="B45" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>117</v>
+      <c r="B46" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>118</v>
+      <c r="B47" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="18" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>121</v>
+      <c r="B48" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>123</v>
+      <c r="B49" t="s">
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>124</v>
+        <v>61</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="18" customFormat="1" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="B51" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" t="s">
-        <v>63</v>
+      <c r="C51" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="C52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="18" customFormat="1" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A53" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{591A9D2B-77CF-4FB0-AD0A-F036FFE3BDB1}"/>
-    <hyperlink ref="F9" r:id="rId2" xr:uid="{7542C43C-FE85-46CE-A041-021D52C672BE}"/>
-    <hyperlink ref="F10" r:id="rId3" xr:uid="{B37ED509-3B6B-47FD-BEA5-46B0A81F593B}"/>
-    <hyperlink ref="F13" r:id="rId4" xr:uid="{10D8A0DD-47D7-4EE7-8A2C-EC31D16456C1}"/>
-    <hyperlink ref="F11" r:id="rId5" location="/signup" display="https://auth.services.adobe.com/en_US/index.html?callback=https%3A%2F%2Fims-na1.adobelogin.com%2Fims%2Fadobeid%2Fadobedotcom2%2FAdobeID%2Ftoken%3Fredirect_uri%3Dhttps%253A%252F%252Fwww.adobe.com%252F%2523from_ims%253Dtrue%2526old_hash%253D%2526api%253Dauthorize%26state%3D%257B%2522ac%2522%253A%2522%2522%257D%26code_challenge_method%3Dplain%26use_ms_for_expiry%3Dtrue&amp;client_id=adobedotcom2&amp;scope=creative_cloud%2CAdobeID%2Copenid%2Cgnav%2Cread_organizations%2Cadditional_info.projectedProductContext%2Csao.ACOM_CLOUD_STORAGE%2Csao.stock%2Csao.cce_private%2Cadditional_info.roles&amp;denied_callback=https%3A%2F%2Fims-na1.adobelogin.com%2Fims%2Fdenied%2Fadobedotcom2%3Fredirect_uri%3Dhttps%253A%252F%252Fwww.adobe.com%252F%2523from_ims%253Dtrue%2526old_hash%253D%2526api%253Dauthorize%26response_type%3Dtoken%26state%3D%257B%2522ac%2522%253A%2522%2522%257D&amp;state=%7B%22ac%22%3A%22%22%7D&amp;relay=96fec218-e7cf-422e-b1a5-1446f05f34e4&amp;locale=en_US&amp;flow_type=token&amp;idp_flow_type=login#/signup" xr:uid="{3C210443-49A7-4712-B224-15639454992E}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{DDFA10E9-92FD-4E34-AF6C-37324E5088DC}"/>
-    <hyperlink ref="F14" r:id="rId7" xr:uid="{2137702A-8213-445D-966D-A71D731C67A0}"/>
-    <hyperlink ref="F15" r:id="rId8" xr:uid="{006886DF-DDBB-4CA4-8BD3-572328569086}"/>
-    <hyperlink ref="F16" r:id="rId9" xr:uid="{D37A13EB-C6BD-4166-B818-1B41EA54C757}"/>
-    <hyperlink ref="F17" r:id="rId10" xr:uid="{AE849C1B-AD5C-44AB-A69A-C3D6BEC6D1C6}"/>
-    <hyperlink ref="F18" r:id="rId11" display="https://profile.theguardian.com/signin" xr:uid="{D35B8197-0A7E-4B46-B17A-E88D85DD3337}"/>
-    <hyperlink ref="F27" r:id="rId12" xr:uid="{747995FB-7760-49DA-B0F1-1831DF1B103C}"/>
-    <hyperlink ref="F28" r:id="rId13" display="https://auth.ted.com/users/new" xr:uid="{CBD0A582-3B9A-4F0B-AF2F-AE713002F1C3}"/>
-    <hyperlink ref="F29" r:id="rId14" display="https://id.condenast.com/interaction/-oOjBUv83R7kl253el_0Y/email?xid=d13ce136-a36e-4eec-a617-319c298c3748&amp;scope=openid%20offline_access&amp;state=%7B%22redirectURL%22%3A%22%2F%22%7D&amp;prompt=select_account%20consent&amp;client_id=condenast.identity.1d626eb68f1c4350244000c9fc888e38&amp;redirect_uri=https%3A%2F%2Fwww.wired.com%2Fauth%2Fcomplete&amp;response_type=code" xr:uid="{D668B461-18A7-4E04-86DE-0327859820F4}"/>
-    <hyperlink ref="F30" r:id="rId15" xr:uid="{62C168A5-D44B-4E6D-B051-89563C21AB25}"/>
-    <hyperlink ref="F31" r:id="rId16" xr:uid="{A5DDEDF7-90BB-4615-9F8D-5068EB68827F}"/>
-    <hyperlink ref="F32" r:id="rId17" xr:uid="{94F0B33F-B045-415B-9FB4-66784DBD9FF4}"/>
-    <hyperlink ref="F33" r:id="rId18" xr:uid="{D6CFDB15-2CEC-48AB-BD02-D97E7540D8B6}"/>
-    <hyperlink ref="F37" r:id="rId19" xr:uid="{66BC9765-A669-45BB-BE63-96345039704A}"/>
-    <hyperlink ref="F38" r:id="rId20" xr:uid="{6A3D4EA1-1DB3-42EB-92A6-6B8F20F6CD95}"/>
-    <hyperlink ref="F39" r:id="rId21" xr:uid="{839EDA58-9B06-4EF2-BD03-7243A0E2D38A}"/>
-    <hyperlink ref="F40" r:id="rId22" xr:uid="{5ED2CD32-42D1-4AC2-A7EC-CC516D1ACB46}"/>
-    <hyperlink ref="F41" r:id="rId23" xr:uid="{003F8D5E-5A0A-4921-8464-5BCAEAE6168A}"/>
-    <hyperlink ref="F42" r:id="rId24" xr:uid="{19187D71-FF47-447A-B564-C37DDC93218D}"/>
-    <hyperlink ref="F43" r:id="rId25" xr:uid="{78CC83A4-2291-4CC1-A7CB-A113A40B5CAE}"/>
-    <hyperlink ref="F44" r:id="rId26" location="eg3o5" xr:uid="{460EF8A7-5674-4CCE-8F55-DCCA11761192}"/>
-    <hyperlink ref="F45" r:id="rId27" xr:uid="{224EE679-8719-4204-939D-71DDE55FAEE4}"/>
-    <hyperlink ref="F46" r:id="rId28" xr:uid="{623468DD-F67E-48AC-B04F-EFDC2A112FFF}"/>
-    <hyperlink ref="F47" r:id="rId29" xr:uid="{0D3117D0-CCEC-4D77-8133-99E1C49E6E69}"/>
-    <hyperlink ref="F48" r:id="rId30" xr:uid="{DF42A4EC-8654-4E8A-AF14-357DCCF1F9CF}"/>
-    <hyperlink ref="F49" r:id="rId31" xr:uid="{3AB6FC8D-9698-4D94-A0A1-C7EAC79E03BE}"/>
-    <hyperlink ref="F50" r:id="rId32" xr:uid="{FFF82932-0756-43A2-8683-AB24AFC94D7C}"/>
-    <hyperlink ref="F51" r:id="rId33" xr:uid="{7347B08C-ABC7-45E9-B17C-0BE84344C86E}"/>
-    <hyperlink ref="F52" r:id="rId34" display="https://accounts.wondershare.com/web/register" xr:uid="{B5D6073C-D812-4785-AE15-D297A309F37B}"/>
-    <hyperlink ref="F53" r:id="rId35" xr:uid="{B484FD64-1BBD-42C4-9BD3-60AF7C8070FB}"/>
-    <hyperlink ref="F20" r:id="rId36" xr:uid="{335EA939-DE90-4885-A3CE-57B6FE8A1FB7}"/>
-    <hyperlink ref="F19" r:id="rId37" location="/checkAccount" display="https://www.paypal.com/bizsignup/ - /checkAccount" xr:uid="{5D48CC76-F7AC-4B5C-99EB-CB15C3FA16B6}"/>
-    <hyperlink ref="F7" r:id="rId38" xr:uid="{57241ACE-BEE1-49B9-BABE-036BF68D3E76}"/>
-    <hyperlink ref="F6" r:id="rId39" xr:uid="{30C8A18F-F056-4408-8A72-846A05481D69}"/>
-    <hyperlink ref="F5" r:id="rId40" xr:uid="{DFA75314-589A-4EAB-87BA-D1717AFCBD82}"/>
-    <hyperlink ref="F4" r:id="rId41" display="https://www.amazon.com/ap/signin?openid.pape.max_auth_age=0&amp;openid.return_to=https%3A%2F%2Fwww.amazon.com%2F%3Fref_%3Dnav_custrec_signin&amp;prevRID=37E71K07MTANFV33RDSX&amp;openid.identity=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;openid.assoc_handle=usflex&amp;openid.mode=checkid_setup&amp;failedSignInCount=0&amp;openid.claimed_id=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0%2Fidentifier_select&amp;pageId=usflex&amp;openid.ns=http%3A%2F%2Fspecs.openid.net%2Fauth%2F2.0" xr:uid="{52285BDC-E577-4E05-BD9E-BB5E1982F0A5}"/>
-    <hyperlink ref="F21" r:id="rId42" xr:uid="{DDE8DA44-33CB-4138-B404-5770A33C26FE}"/>
-    <hyperlink ref="F3" r:id="rId43" xr:uid="{DC4F37BA-CF15-4310-AF05-54CAF8D55328}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{7542C43C-FE85-46CE-A041-021D52C672BE}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{B37ED509-3B6B-47FD-BEA5-46B0A81F593B}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{10D8A0DD-47D7-4EE7-8A2C-EC31D16456C1}"/>
+    <hyperlink ref="F9" r:id="rId5" location="/signup" display="https://auth.services.adobe.com/en_US/index.html?callback=https%3A%2F%2Fims-na1.adobelogin.com%2Fims%2Fadobeid%2Fadobedotcom2%2FAdobeID%2Ftoken%3Fredirect_uri%3Dhttps%253A%252F%252Fwww.adobe.com%252F%2523from_ims%253Dtrue%2526old_hash%253D%2526api%253Dauthorize%26state%3D%257B%2522ac%2522%253A%2522%2522%257D%26code_challenge_method%3Dplain%26use_ms_for_expiry%3Dtrue&amp;client_id=adobedotcom2&amp;scope=creative_cloud%2CAdobeID%2Copenid%2Cgnav%2Cread_organizations%2Cadditional_info.projectedProductContext%2Csao.ACOM_CLOUD_STORAGE%2Csao.stock%2Csao.cce_private%2Cadditional_info.roles&amp;denied_callback=https%3A%2F%2Fims-na1.adobelogin.com%2Fims%2Fdenied%2Fadobedotcom2%3Fredirect_uri%3Dhttps%253A%252F%252Fwww.adobe.com%252F%2523from_ims%253Dtrue%2526old_hash%253D%2526api%253Dauthorize%26response_type%3Dtoken%26state%3D%257B%2522ac%2522%253A%2522%2522%257D&amp;state=%7B%22ac%22%3A%22%22%7D&amp;relay=96fec218-e7cf-422e-b1a5-1446f05f34e4&amp;locale=en_US&amp;flow_type=token&amp;idp_flow_type=login#/signup" xr:uid="{3C210443-49A7-4712-B224-15639454992E}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{DDFA10E9-92FD-4E34-AF6C-37324E5088DC}"/>
+    <hyperlink ref="F12" r:id="rId7" xr:uid="{2137702A-8213-445D-966D-A71D731C67A0}"/>
+    <hyperlink ref="F13" r:id="rId8" xr:uid="{006886DF-DDBB-4CA4-8BD3-572328569086}"/>
+    <hyperlink ref="F14" r:id="rId9" xr:uid="{D37A13EB-C6BD-4166-B818-1B41EA54C757}"/>
+    <hyperlink ref="F15" r:id="rId10" xr:uid="{AE849C1B-AD5C-44AB-A69A-C3D6BEC6D1C6}"/>
+    <hyperlink ref="F16" r:id="rId11" display="https://profile.theguardian.com/signin" xr:uid="{D35B8197-0A7E-4B46-B17A-E88D85DD3337}"/>
+    <hyperlink ref="F25" r:id="rId12" xr:uid="{747995FB-7760-49DA-B0F1-1831DF1B103C}"/>
+    <hyperlink ref="F26" r:id="rId13" display="https://auth.ted.com/users/new" xr:uid="{CBD0A582-3B9A-4F0B-AF2F-AE713002F1C3}"/>
+    <hyperlink ref="F27" r:id="rId14" display="https://id.condenast.com/interaction/-oOjBUv83R7kl253el_0Y/email?xid=d13ce136-a36e-4eec-a617-319c298c3748&amp;scope=openid%20offline_access&amp;state=%7B%22redirectURL%22%3A%22%2F%22%7D&amp;prompt=select_account%20consent&amp;client_id=condenast.identity.1d626eb68f1c4350244000c9fc888e38&amp;redirect_uri=https%3A%2F%2Fwww.wired.com%2Fauth%2Fcomplete&amp;response_type=code" xr:uid="{D668B461-18A7-4E04-86DE-0327859820F4}"/>
+    <hyperlink ref="F28" r:id="rId15" xr:uid="{62C168A5-D44B-4E6D-B051-89563C21AB25}"/>
+    <hyperlink ref="F29" r:id="rId16" xr:uid="{A5DDEDF7-90BB-4615-9F8D-5068EB68827F}"/>
+    <hyperlink ref="F30" r:id="rId17" xr:uid="{94F0B33F-B045-415B-9FB4-66784DBD9FF4}"/>
+    <hyperlink ref="F31" r:id="rId18" xr:uid="{D6CFDB15-2CEC-48AB-BD02-D97E7540D8B6}"/>
+    <hyperlink ref="F35" r:id="rId19" xr:uid="{66BC9765-A669-45BB-BE63-96345039704A}"/>
+    <hyperlink ref="F36" r:id="rId20" xr:uid="{6A3D4EA1-1DB3-42EB-92A6-6B8F20F6CD95}"/>
+    <hyperlink ref="F37" r:id="rId21" xr:uid="{839EDA58-9B06-4EF2-BD03-7243A0E2D38A}"/>
+    <hyperlink ref="F38" r:id="rId22" xr:uid="{5ED2CD32-42D1-4AC2-A7EC-CC516D1ACB46}"/>
+    <hyperlink ref="F39" r:id="rId23" xr:uid="{003F8D5E-5A0A-4921-8464-5BCAEAE6168A}"/>
+    <hyperlink ref="F40" r:id="rId24" xr:uid="{19187D71-FF47-447A-B564-C37DDC93218D}"/>
+    <hyperlink ref="F41" r:id="rId25" xr:uid="{78CC83A4-2291-4CC1-A7CB-A113A40B5CAE}"/>
+    <hyperlink ref="F42" r:id="rId26" location="eg3o5" xr:uid="{460EF8A7-5674-4CCE-8F55-DCCA11761192}"/>
+    <hyperlink ref="F43" r:id="rId27" xr:uid="{224EE679-8719-4204-939D-71DDE55FAEE4}"/>
+    <hyperlink ref="F44" r:id="rId28" xr:uid="{623468DD-F67E-48AC-B04F-EFDC2A112FFF}"/>
+    <hyperlink ref="F45" r:id="rId29" xr:uid="{0D3117D0-CCEC-4D77-8133-99E1C49E6E69}"/>
+    <hyperlink ref="F46" r:id="rId30" xr:uid="{DF42A4EC-8654-4E8A-AF14-357DCCF1F9CF}"/>
+    <hyperlink ref="F47" r:id="rId31" xr:uid="{3AB6FC8D-9698-4D94-A0A1-C7EAC79E03BE}"/>
+    <hyperlink ref="F48" r:id="rId32" xr:uid="{FFF82932-0756-43A2-8683-AB24AFC94D7C}"/>
+    <hyperlink ref="F49" r:id="rId33" xr:uid="{7347B08C-ABC7-45E9-B17C-0BE84344C86E}"/>
+    <hyperlink ref="F50" r:id="rId34" display="https://accounts.wondershare.com/web/register" xr:uid="{B5D6073C-D812-4785-AE15-D297A309F37B}"/>
+    <hyperlink ref="F51" r:id="rId35" xr:uid="{B484FD64-1BBD-42C4-9BD3-60AF7C8070FB}"/>
+    <hyperlink ref="F18" r:id="rId36" xr:uid="{335EA939-DE90-4885-A3CE-57B6FE8A1FB7}"/>
+    <hyperlink ref="F17" r:id="rId37" location="/checkAccount" display="https://www.paypal.com/bizsignup/ - /checkAccount" xr:uid="{5D48CC76-F7AC-4B5C-99EB-CB15C3FA16B6}"/>
+    <hyperlink ref="F5" r:id="rId38" xr:uid="{57241ACE-BEE1-49B9-BABE-036BF68D3E76}"/>
+    <hyperlink ref="F4" r:id="rId39" xr:uid="{30C8A18F-F056-4408-8A72-846A05481D69}"/>
+    <hyperlink ref="F3" r:id="rId40" xr:uid="{DFA75314-589A-4EAB-87BA-D1717AFCBD82}"/>
+    <hyperlink ref="F19" r:id="rId41" xr:uid="{DDE8DA44-33CB-4138-B404-5770A33C26FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>